--- a/Vaja_4/Zvezek1.xlsx
+++ b/Vaja_4/Zvezek1.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -654,64 +654,97 @@
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="X3">
-        <v>0</v>
+      <c r="Y3">
+        <v>5</v>
       </c>
       <c r="AA3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:27">
+      <c r="Y4">
+        <v>5</v>
+      </c>
       <c r="AA4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:27">
+      <c r="Y5">
+        <v>5</v>
+      </c>
       <c r="AA5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:27">
+      <c r="Y6">
+        <v>5</v>
+      </c>
       <c r="AA6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:27">
+      <c r="Y7">
+        <v>9</v>
+      </c>
       <c r="AA7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:27">
+      <c r="Y8">
+        <v>9</v>
+      </c>
       <c r="AA8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:27">
+      <c r="Y9">
+        <v>9</v>
+      </c>
       <c r="AA9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:27">
+      <c r="Y10">
+        <v>9</v>
+      </c>
       <c r="AA10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:27">
+      <c r="Y11">
+        <v>9</v>
+      </c>
       <c r="AA11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:27">
+      <c r="Y12">
+        <v>9</v>
+      </c>
       <c r="AA12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:27">
+      <c r="Y13">
+        <v>9</v>
+      </c>
       <c r="AA13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:27">
+      <c r="Y14">
+        <v>9</v>
+      </c>
       <c r="AA14" t="s">
         <v>37</v>
       </c>
